--- a/Sura/DataSource - Emision Motor NuevasCoberturas.xlsx
+++ b/Sura/DataSource - Emision Motor NuevasCoberturas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maruiz\Documents\Ranorex\RanorexStudio Projects\Sura\Sura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4843E30-79E1-4A4D-A360-40883DBD1D2A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B902BE6E-B90A-417D-B0BB-E820CE938D40}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="66">
   <si>
     <t>Usuario</t>
   </si>
@@ -183,9 +183,6 @@
     <t>A - Responsabilidad Civil Unicamente</t>
   </si>
   <si>
-    <t>123456789A001</t>
-  </si>
-  <si>
     <t>123456789A002</t>
   </si>
   <si>
@@ -217,6 +214,15 @@
   </si>
   <si>
     <t>1234567RGR008</t>
+  </si>
+  <si>
+    <t>03/02/2021</t>
+  </si>
+  <si>
+    <t>RPR009</t>
+  </si>
+  <si>
+    <t>1234567RPR009</t>
   </si>
 </sst>
 </file>
@@ -572,8 +578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W6" sqref="W6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -698,7 +704,7 @@
         <v>30</v>
       </c>
       <c r="E2" s="6">
-        <v>2551825244</v>
+        <v>1251282873</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>12</v>
@@ -710,7 +716,7 @@
         <v>27</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="J2" t="s">
         <v>38</v>
@@ -742,13 +748,13 @@
         <v>34</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="AA2" s="1" t="s">
         <v>16</v>
@@ -825,10 +831,10 @@
         <v>36</v>
       </c>
       <c r="Y3" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Z3" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AA3" s="1" t="s">
         <v>16</v>
@@ -900,10 +906,10 @@
         <v>36</v>
       </c>
       <c r="Y4" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Z4" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AA4" s="1" t="s">
         <v>16</v>
@@ -914,16 +920,16 @@
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>55</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>56</v>
       </c>
       <c r="C5" t="s">
         <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E5" s="6">
         <v>7557632631</v>
@@ -935,10 +941,10 @@
         <v>15</v>
       </c>
       <c r="H5" t="s">
+        <v>57</v>
+      </c>
+      <c r="I5" s="4" t="s">
         <v>58</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>59</v>
       </c>
       <c r="J5" t="s">
         <v>38</v>
@@ -965,13 +971,13 @@
         <v>22</v>
       </c>
       <c r="X5" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Y5" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Z5" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AA5" s="1" t="s">
         <v>16</v>
@@ -982,16 +988,16 @@
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>55</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>56</v>
       </c>
       <c r="C6" t="s">
         <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E6" s="6">
         <v>7557632631</v>
@@ -1003,10 +1009,10 @@
         <v>15</v>
       </c>
       <c r="H6" t="s">
+        <v>57</v>
+      </c>
+      <c r="I6" s="4" t="s">
         <v>58</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>59</v>
       </c>
       <c r="J6" t="s">
         <v>38</v>
@@ -1038,13 +1044,13 @@
         <v>22</v>
       </c>
       <c r="X6" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Y6" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Z6" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AA6" s="1" t="s">
         <v>16</v>

--- a/Sura/DataSource - Emision Motor NuevasCoberturas.xlsx
+++ b/Sura/DataSource - Emision Motor NuevasCoberturas.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maruiz\Documents\Ranorex\RanorexStudio Projects\Sura\Sura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B902BE6E-B90A-417D-B0BB-E820CE938D40}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F3F557F-939E-4479-9C73-22BAB31AEC3B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="68">
   <si>
     <t>Usuario</t>
   </si>
@@ -216,13 +217,19 @@
     <t>1234567RGR008</t>
   </si>
   <si>
-    <t>03/02/2021</t>
-  </si>
-  <si>
-    <t>RPR009</t>
-  </si>
-  <si>
-    <t>1234567RPR009</t>
+    <t>preproducciongestion.segurossura.com.ar</t>
+  </si>
+  <si>
+    <t>https://preproducciongestion.segurossura.com.ar/pc/PolicyCenter.do</t>
+  </si>
+  <si>
+    <t>10/03/2021</t>
+  </si>
+  <si>
+    <t>RPM009</t>
+  </si>
+  <si>
+    <t>1234567RPM009</t>
   </si>
 </sst>
 </file>
@@ -692,10 +699,10 @@
     </row>
     <row r="2" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="C2" t="s">
         <v>17</v>
@@ -704,7 +711,7 @@
         <v>30</v>
       </c>
       <c r="E2" s="6">
-        <v>1251282873</v>
+        <v>5130489896</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>12</v>
@@ -713,10 +720,10 @@
         <v>15</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J2" t="s">
         <v>38</v>
@@ -733,7 +740,7 @@
       <c r="Q2" s="8"/>
       <c r="R2"/>
       <c r="S2">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="T2" t="s">
         <v>23</v>
@@ -742,320 +749,24 @@
         <v>25</v>
       </c>
       <c r="V2">
-        <v>934000</v>
+        <v>1200000</v>
       </c>
       <c r="W2" s="1" t="s">
         <v>34</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AA2" s="1" t="s">
         <v>16</v>
       </c>
       <c r="AB2" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="6">
-        <v>2551825244</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="J3" t="s">
-        <v>39</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M3" t="s">
-        <v>44</v>
-      </c>
-      <c r="N3" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="O3" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3"/>
-      <c r="S3">
-        <v>2020</v>
-      </c>
-      <c r="T3" t="s">
-        <v>23</v>
-      </c>
-      <c r="U3" t="s">
-        <v>25</v>
-      </c>
-      <c r="V3">
-        <v>934000</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y3" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z3" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AA3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AB3" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="6">
-        <v>2551825244</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" t="s">
-        <v>27</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="P4" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="R4"/>
-      <c r="S4">
-        <v>2020</v>
-      </c>
-      <c r="T4" t="s">
-        <v>23</v>
-      </c>
-      <c r="U4" t="s">
-        <v>25</v>
-      </c>
-      <c r="V4">
-        <v>1000000</v>
-      </c>
-      <c r="W4" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="X4" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y4" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="Z4" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AB4" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E5" s="6">
-        <v>7557632631</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" t="s">
-        <v>57</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="J5" t="s">
-        <v>38</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="S5">
-        <v>2021</v>
-      </c>
-      <c r="T5" t="s">
-        <v>23</v>
-      </c>
-      <c r="U5" t="s">
-        <v>25</v>
-      </c>
-      <c r="V5">
-        <v>1000000</v>
-      </c>
-      <c r="W5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X5" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="Y5" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z5" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AB5" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E6" s="6">
-        <v>7557632631</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" t="s">
-        <v>57</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="J6" t="s">
-        <v>38</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="S6">
-        <v>2021</v>
-      </c>
-      <c r="T6" t="s">
-        <v>23</v>
-      </c>
-      <c r="U6" t="s">
-        <v>25</v>
-      </c>
-      <c r="V6">
-        <v>1000000</v>
-      </c>
-      <c r="W6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X6" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="Y6" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="Z6" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="AA6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AB6" s="1" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1102,10 +813,324 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B5" r:id="rId1" xr:uid="{3423C689-C962-4BEB-A1FA-59010B8C40F2}"/>
-    <hyperlink ref="B6" r:id="rId2" xr:uid="{35A11F0A-CC89-4264-8E11-C805657E1D19}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{541F9332-0541-4BF2-8AA2-AC9533AC13B1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC632702-F811-43FD-8A2E-C15140F8F95F}">
+  <dimension ref="A1:AB4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="6">
+        <v>2551825244</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1"/>
+      <c r="S1">
+        <v>2020</v>
+      </c>
+      <c r="T1" t="s">
+        <v>23</v>
+      </c>
+      <c r="U1" t="s">
+        <v>25</v>
+      </c>
+      <c r="V1">
+        <v>934000</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="6">
+        <v>2551825244</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="R2"/>
+      <c r="S2">
+        <v>2020</v>
+      </c>
+      <c r="T2" t="s">
+        <v>23</v>
+      </c>
+      <c r="U2" t="s">
+        <v>25</v>
+      </c>
+      <c r="V2">
+        <v>1000000</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" s="6">
+        <v>7557632631</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="S3">
+        <v>2021</v>
+      </c>
+      <c r="T3" t="s">
+        <v>23</v>
+      </c>
+      <c r="U3" t="s">
+        <v>25</v>
+      </c>
+      <c r="V3">
+        <v>1000000</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" s="6">
+        <v>7557632631</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="J4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="S4">
+        <v>2021</v>
+      </c>
+      <c r="T4" t="s">
+        <v>23</v>
+      </c>
+      <c r="U4" t="s">
+        <v>25</v>
+      </c>
+      <c r="V4">
+        <v>1000000</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB4" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{3423C689-C962-4BEB-A1FA-59010B8C40F2}"/>
+    <hyperlink ref="B4" r:id="rId2" xr:uid="{35A11F0A-CC89-4264-8E11-C805657E1D19}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Sura/DataSource - Emision Motor NuevasCoberturas.xlsx
+++ b/Sura/DataSource - Emision Motor NuevasCoberturas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maruiz\Documents\Ranorex\RanorexStudio Projects\Sura\Sura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F3F557F-939E-4479-9C73-22BAB31AEC3B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC62D503-0FAB-419B-BDAF-737025914355}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5115" yWindow="3045" windowWidth="15375" windowHeight="7875" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="71">
   <si>
     <t>Usuario</t>
   </si>
@@ -230,13 +230,22 @@
   </si>
   <si>
     <t>1234567RPM009</t>
+  </si>
+  <si>
+    <t>NUM_GRUPO</t>
+  </si>
+  <si>
+    <t>CodigoAgente</t>
+  </si>
+  <si>
+    <t>Mattioli</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -270,6 +279,12 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -292,7 +307,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
@@ -302,6 +317,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -583,10 +601,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB8"/>
+  <dimension ref="A1:AD8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F2" sqref="F2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -595,23 +613,23 @@
     <col min="2" max="2" width="16.5703125" customWidth="1"/>
     <col min="3" max="3" width="8.5703125" customWidth="1"/>
     <col min="4" max="4" width="11.5703125" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" customWidth="1"/>
-    <col min="7" max="8" width="19.28515625" customWidth="1"/>
-    <col min="9" max="18" width="21.28515625" customWidth="1"/>
-    <col min="19" max="19" width="15.42578125" customWidth="1"/>
-    <col min="20" max="20" width="11.140625" customWidth="1"/>
-    <col min="21" max="21" width="7.85546875" customWidth="1"/>
-    <col min="22" max="22" width="11.5703125" customWidth="1"/>
-    <col min="23" max="23" width="74.5703125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="8" customWidth="1"/>
-    <col min="25" max="25" width="33" customWidth="1"/>
-    <col min="26" max="26" width="15" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.42578125" customWidth="1"/>
-    <col min="28" max="28" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="12.28515625" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" customWidth="1"/>
+    <col min="9" max="10" width="19.28515625" customWidth="1"/>
+    <col min="11" max="20" width="21.28515625" customWidth="1"/>
+    <col min="21" max="21" width="15.42578125" customWidth="1"/>
+    <col min="22" max="22" width="11.140625" customWidth="1"/>
+    <col min="23" max="23" width="7.85546875" customWidth="1"/>
+    <col min="24" max="24" width="11.5703125" customWidth="1"/>
+    <col min="25" max="25" width="74.5703125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="8" customWidth="1"/>
+    <col min="27" max="27" width="33" customWidth="1"/>
+    <col min="28" max="28" width="15" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12.42578125" customWidth="1"/>
+    <col min="30" max="30" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -628,76 +646,82 @@
         <v>2</v>
       </c>
       <c r="F1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>26</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>28</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>37</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>5</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>20</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>40</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>41</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>42</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>47</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>48</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>24</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>6</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>7</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>8</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>9</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>10</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Z1" t="s">
         <v>11</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AA1" t="s">
         <v>12</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AB1" t="s">
         <v>13</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AC1" t="s">
         <v>14</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AD1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>63</v>
       </c>
@@ -711,104 +735,114 @@
         <v>30</v>
       </c>
       <c r="E2" s="6">
-        <v>5130489896</v>
-      </c>
-      <c r="F2" s="1" t="s">
+        <v>2617100594</v>
+      </c>
+      <c r="F2" s="9">
+        <v>2302</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>57</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="K2" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="N2" s="7"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
+      <c r="P2" s="7"/>
       <c r="Q2" s="8"/>
-      <c r="R2"/>
-      <c r="S2">
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+      <c r="T2"/>
+      <c r="U2">
         <v>2021</v>
       </c>
-      <c r="T2" t="s">
+      <c r="V2" t="s">
         <v>23</v>
       </c>
-      <c r="U2" t="s">
+      <c r="W2" t="s">
         <v>25</v>
       </c>
-      <c r="V2">
+      <c r="X2">
         <v>1200000</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="Y2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="Z2" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="Y2" s="1" t="s">
+      <c r="AA2" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="Z2" s="1" t="s">
+      <c r="AB2" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="AA2" s="1" t="s">
+      <c r="AC2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="AB2" s="1" t="s">
+      <c r="AD2" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B7" s="5"/>
       <c r="E7" s="3"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
-      <c r="W7" s="1"/>
-      <c r="X7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
       <c r="Y7" s="1"/>
       <c r="Z7" s="1"/>
       <c r="AA7" s="1"/>
+      <c r="AB7" s="1"/>
+      <c r="AC7" s="1"/>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B8" s="5"/>
       <c r="E8" s="3"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
-      <c r="W8" s="1"/>
-      <c r="X8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
       <c r="AA8" s="1"/>
+      <c r="AB8" s="1"/>
+      <c r="AC8" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Sura/DataSource - Emision Motor NuevasCoberturas.xlsx
+++ b/Sura/DataSource - Emision Motor NuevasCoberturas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maruiz\Documents\Ranorex\RanorexStudio Projects\Sura\Sura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC62D503-0FAB-419B-BDAF-737025914355}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74FC224F-7465-49D6-A89C-FF6BA22CF25F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5115" yWindow="3045" windowWidth="15375" windowHeight="7875" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -223,15 +223,6 @@
     <t>https://preproducciongestion.segurossura.com.ar/pc/PolicyCenter.do</t>
   </si>
   <si>
-    <t>10/03/2021</t>
-  </si>
-  <si>
-    <t>RPM009</t>
-  </si>
-  <si>
-    <t>1234567RPM009</t>
-  </si>
-  <si>
     <t>NUM_GRUPO</t>
   </si>
   <si>
@@ -239,6 +230,15 @@
   </si>
   <si>
     <t>Mattioli</t>
+  </si>
+  <si>
+    <t>07/04/2021</t>
+  </si>
+  <si>
+    <t>RGA009</t>
+  </si>
+  <si>
+    <t>1234567RGA009</t>
   </si>
 </sst>
 </file>
@@ -603,8 +603,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:G2"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -646,10 +646,10 @@
         <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H1" t="s">
         <v>3</v>
@@ -735,13 +735,13 @@
         <v>30</v>
       </c>
       <c r="E2" s="6">
-        <v>2617100594</v>
+        <v>6759658789</v>
       </c>
       <c r="F2" s="9">
         <v>2302</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>12</v>
@@ -753,7 +753,7 @@
         <v>57</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="L2" t="s">
         <v>38</v>
@@ -784,14 +784,14 @@
       <c r="Y2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="Z2" s="1" t="s">
-        <v>66</v>
+      <c r="Z2" t="s">
+        <v>69</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="AB2" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="AC2" s="1" t="s">
         <v>16</v>

--- a/Sura/DataSource - Emision Motor NuevasCoberturas.xlsx
+++ b/Sura/DataSource - Emision Motor NuevasCoberturas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maruiz\Documents\Ranorex\RanorexStudio Projects\Sura\Sura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74FC224F-7465-49D6-A89C-FF6BA22CF25F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49398665-0FB1-48A7-9A04-C14BB5F0FD26}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,8 +16,16 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -603,7 +611,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -735,7 +743,7 @@
         <v>30</v>
       </c>
       <c r="E2" s="6">
-        <v>6759658789</v>
+        <v>2240451788</v>
       </c>
       <c r="F2" s="9">
         <v>2302</v>

--- a/Sura/DataSource - Emision Motor NuevasCoberturas.xlsx
+++ b/Sura/DataSource - Emision Motor NuevasCoberturas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maruiz\Documents\Ranorex\RanorexStudio Projects\Sura\Sura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49398665-0FB1-48A7-9A04-C14BB5F0FD26}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7E6E658-EB4F-4669-AC07-8807C48F8EC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="72">
   <si>
     <t>Usuario</t>
   </si>
@@ -240,13 +240,16 @@
     <t>Mattioli</t>
   </si>
   <si>
-    <t>07/04/2021</t>
-  </si>
-  <si>
-    <t>RGA009</t>
-  </si>
-  <si>
-    <t>1234567RGA009</t>
+    <t>03/05/2021</t>
+  </si>
+  <si>
+    <t>RGM009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1234567RGM009 </t>
+  </si>
+  <si>
+    <t>1234567RGM009</t>
   </si>
 </sst>
 </file>
@@ -611,8 +614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="X1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AD2" sqref="AD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -799,7 +802,7 @@
         <v>70</v>
       </c>
       <c r="AB2" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC2" s="1" t="s">
         <v>16</v>

--- a/Sura/DataSource - Emision Motor NuevasCoberturas.xlsx
+++ b/Sura/DataSource - Emision Motor NuevasCoberturas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maruiz\Documents\Ranorex\RanorexStudio Projects\Sura\Sura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7E6E658-EB4F-4669-AC07-8807C48F8EC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1D28E62-FE37-4F93-B7A3-1269E50AD8E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -240,9 +240,6 @@
     <t>Mattioli</t>
   </si>
   <si>
-    <t>03/05/2021</t>
-  </si>
-  <si>
     <t>RGM009</t>
   </si>
   <si>
@@ -250,6 +247,9 @@
   </si>
   <si>
     <t>1234567RGM009</t>
+  </si>
+  <si>
+    <t>06/05/2021</t>
   </si>
 </sst>
 </file>
@@ -614,7 +614,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="W1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AD2" sqref="AD2"/>
     </sheetView>
   </sheetViews>
@@ -764,7 +764,7 @@
         <v>57</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="L2" t="s">
         <v>38</v>
@@ -796,13 +796,13 @@
         <v>34</v>
       </c>
       <c r="Z2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA2" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="AA2" s="1" t="s">
+      <c r="AB2" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>71</v>
       </c>
       <c r="AC2" s="1" t="s">
         <v>16</v>

--- a/Sura/DataSource - Emision Motor NuevasCoberturas.xlsx
+++ b/Sura/DataSource - Emision Motor NuevasCoberturas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maruiz\Documents\Ranorex\RanorexStudio Projects\Sura\Sura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1D28E62-FE37-4F93-B7A3-1269E50AD8E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3962EE2A-F9EA-4D61-9C67-CC9624988FC4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -614,8 +614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AD2" sqref="AD2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -745,8 +745,8 @@
       <c r="D2" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="6">
-        <v>2240451788</v>
+      <c r="E2">
+        <v>7635954411</v>
       </c>
       <c r="F2" s="9">
         <v>2302</v>

--- a/Sura/DataSource - Emision Motor NuevasCoberturas.xlsx
+++ b/Sura/DataSource - Emision Motor NuevasCoberturas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maruiz\Documents\Ranorex\RanorexStudio Projects\Sura\Sura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3962EE2A-F9EA-4D61-9C67-CC9624988FC4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D518742-A84C-4C8B-821D-4C250667AD8E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="70">
   <si>
     <t>Usuario</t>
   </si>
@@ -225,12 +225,6 @@
     <t>1234567RGR008</t>
   </si>
   <si>
-    <t>preproducciongestion.segurossura.com.ar</t>
-  </si>
-  <si>
-    <t>https://preproducciongestion.segurossura.com.ar/pc/PolicyCenter.do</t>
-  </si>
-  <si>
     <t>NUM_GRUPO</t>
   </si>
   <si>
@@ -249,7 +243,7 @@
     <t>1234567RGM009</t>
   </si>
   <si>
-    <t>06/05/2021</t>
+    <t>17/06/2021</t>
   </si>
 </sst>
 </file>
@@ -615,7 +609,7 @@
   <dimension ref="A1:AD8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -657,10 +651,10 @@
         <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H1" t="s">
         <v>3</v>
@@ -734,10 +728,10 @@
     </row>
     <row r="2" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s">
         <v>17</v>
@@ -746,13 +740,13 @@
         <v>30</v>
       </c>
       <c r="E2">
-        <v>7635954411</v>
+        <v>5069929970</v>
       </c>
       <c r="F2" s="9">
         <v>2302</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>12</v>
@@ -764,7 +758,7 @@
         <v>57</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L2" t="s">
         <v>38</v>
@@ -796,13 +790,13 @@
         <v>34</v>
       </c>
       <c r="Z2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB2" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>70</v>
       </c>
       <c r="AC2" s="1" t="s">
         <v>16</v>
